--- a/research/rebalance_ana/sec_pool.xlsx
+++ b/research/rebalance_ana/sec_pool.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE81343-EC32-44DF-BC9F-886FBFDEFC04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EC3F8E-F26E-46AE-BF23-67B8F6E014B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,18 +15,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="54">
   <si>
     <t>SecCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +209,22 @@
   </si>
   <si>
     <t>601336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600519</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000858</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000568</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1290,6 +1300,30 @@
         <v>45</v>
       </c>
     </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B92" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B93" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
